--- a/Data Files/Fix Bug/GSD-65/Auto_GSD-65_Error.xlsx
+++ b/Data Files/Fix Bug/GSD-65/Auto_GSD-65_Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-65\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pagus\Desktop\test gestamp\Data Files\Fix Bug\GSD-65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F94600-F955-47DB-97B1-AA00957C9E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505B7DD-1F51-456B-B4CD-5DC6206A6F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>issueNumber</t>
   </si>
@@ -175,59 +175,47 @@
     <t>0</t>
   </si>
   <si>
-    <t>th.fpt.tax@frasersproperty.com</t>
-  </si>
-  <si>
     <t>2023-11-30</t>
   </si>
   <si>
     <t>403560</t>
   </si>
   <si>
-    <t>0205531003381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บริษัท ไทยซัมซุง อิเลคโทรนิคส์ จำกัด  </t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>สวนอุตสาหกรรมศรีราชา</t>
-  </si>
-  <si>
-    <t>สุขาภิบาล 8</t>
-  </si>
-  <si>
-    <t>บึง</t>
-  </si>
-  <si>
-    <t>ศรีราชา</t>
-  </si>
-  <si>
     <t>ชลบุรี</t>
   </si>
   <si>
-    <t>20230</t>
-  </si>
-  <si>
-    <t>[2|2|6|553/4|หนองขาม|ศรีราชา|ชลบุรี|โกดังสินค้า|112194|403560|0|403560|1]</t>
-  </si>
-  <si>
     <t>2023-11-01</t>
   </si>
   <si>
-    <t>2023-11-28-2</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
+    <t>TC2-2024-01-10</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>0695149473434</t>
+  </si>
+  <si>
+    <t>[2|2|6|D1|D2|D3|D4|D5|D6|403560|0|403560|1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -260,6 +248,11 @@
       <color theme="1"/>
       <name val="SUKHUMVITSET-TEXT"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF3F4254"/>
+      <name val="Poppins"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -301,6 +294,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,83 +516,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="44.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="14.42578125" style="6"/>
+    <col min="61" max="61" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="14.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="3" customFormat="1" ht="11.25">
+    <row r="1" spans="1:45" s="3" customFormat="1" ht="10.199999999999999">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -733,24 +729,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="3" customFormat="1" ht="17.45" customHeight="1">
+    <row r="2" spans="1:45" s="3" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -765,7 +761,7 @@
         <v>50</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>45</v>
@@ -780,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>50</v>
@@ -793,28 +789,21 @@
       </c>
       <c r="W2" s="5"/>
       <c r="AA2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>43</v>
@@ -826,7 +815,7 @@
         <v>50</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="2">
         <v>404</v>
@@ -834,26 +823,24 @@
       <c r="AP2" s="2">
         <v>5</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45" ht="11.25"/>
-    <row r="4" spans="1:45" ht="11.25"/>
-    <row r="5" spans="1:45" ht="11.25"/>
-    <row r="6" spans="1:45" ht="11.25"/>
-    <row r="7" spans="1:45" ht="11.25"/>
-    <row r="8" spans="1:45" ht="11.25"/>
-    <row r="9" spans="1:45" ht="11.25"/>
-    <row r="10" spans="1:45" ht="11.25"/>
-    <row r="11" spans="1:45" ht="11.25"/>
-    <row r="12" spans="1:45" ht="11.25"/>
-    <row r="13" spans="1:45" ht="11.25"/>
-    <row r="14" spans="1:45" ht="11.25"/>
-    <row r="15" spans="1:45" ht="11.25"/>
-    <row r="16" spans="1:45" ht="11.25"/>
-    <row r="17" s="6" customFormat="1" ht="11.25"/>
-    <row r="18" s="6" customFormat="1" ht="11.25"/>
+    <row r="3" spans="1:45" ht="10.199999999999999"/>
+    <row r="4" spans="1:45" ht="10.199999999999999"/>
+    <row r="5" spans="1:45" ht="10.199999999999999"/>
+    <row r="6" spans="1:45" ht="10.199999999999999"/>
+    <row r="7" spans="1:45" ht="10.199999999999999"/>
+    <row r="8" spans="1:45" ht="10.199999999999999"/>
+    <row r="9" spans="1:45" ht="10.199999999999999"/>
+    <row r="10" spans="1:45" ht="10.199999999999999"/>
+    <row r="11" spans="1:45" ht="10.199999999999999"/>
+    <row r="12" spans="1:45" ht="10.199999999999999"/>
+    <row r="13" spans="1:45" ht="10.199999999999999"/>
+    <row r="14" spans="1:45" ht="10.199999999999999"/>
+    <row r="15" spans="1:45" ht="10.199999999999999"/>
+    <row r="16" spans="1:45" ht="10.199999999999999"/>
+    <row r="17" s="6" customFormat="1" ht="10.199999999999999"/>
+    <row r="18" s="6" customFormat="1" ht="10.199999999999999"/>
     <row r="19" s="6" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="20" s="6" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="21" s="6" customFormat="1" ht="15.75" customHeight="1"/>

--- a/Data Files/Fix Bug/GSD-65/Auto_GSD-65_Error.xlsx
+++ b/Data Files/Fix Bug/GSD-65/Auto_GSD-65_Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pagus\Desktop\test gestamp\Data Files\Fix Bug\GSD-65\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505B7DD-1F51-456B-B4CD-5DC6206A6F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9F87E-28A8-4B4B-AD58-39897DD4ECF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>0695149473434</t>
   </si>
   <si>
-    <t>[2|2|6|D1|D2|D3|D4|D5|D6|403560|0|403560|1]</t>
+    <t>2024-05-02</t>
   </si>
 </sst>
 </file>
@@ -516,83 +516,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="44.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="14.44140625" style="6"/>
+    <col min="61" max="61" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="3" customFormat="1" ht="10.199999999999999">
+    <row r="1" spans="1:45" s="3" customFormat="1" ht="11.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="3" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="2" spans="1:45" s="3" customFormat="1" ht="17.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -825,22 +825,22 @@
       </c>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45" ht="10.199999999999999"/>
-    <row r="4" spans="1:45" ht="10.199999999999999"/>
-    <row r="5" spans="1:45" ht="10.199999999999999"/>
-    <row r="6" spans="1:45" ht="10.199999999999999"/>
-    <row r="7" spans="1:45" ht="10.199999999999999"/>
-    <row r="8" spans="1:45" ht="10.199999999999999"/>
-    <row r="9" spans="1:45" ht="10.199999999999999"/>
-    <row r="10" spans="1:45" ht="10.199999999999999"/>
-    <row r="11" spans="1:45" ht="10.199999999999999"/>
-    <row r="12" spans="1:45" ht="10.199999999999999"/>
-    <row r="13" spans="1:45" ht="10.199999999999999"/>
-    <row r="14" spans="1:45" ht="10.199999999999999"/>
-    <row r="15" spans="1:45" ht="10.199999999999999"/>
-    <row r="16" spans="1:45" ht="10.199999999999999"/>
-    <row r="17" s="6" customFormat="1" ht="10.199999999999999"/>
-    <row r="18" s="6" customFormat="1" ht="10.199999999999999"/>
+    <row r="3" spans="1:45" ht="11.25"/>
+    <row r="4" spans="1:45" ht="11.25"/>
+    <row r="5" spans="1:45" ht="11.25"/>
+    <row r="6" spans="1:45" ht="11.25"/>
+    <row r="7" spans="1:45" ht="11.25"/>
+    <row r="8" spans="1:45" ht="11.25"/>
+    <row r="9" spans="1:45" ht="11.25"/>
+    <row r="10" spans="1:45" ht="11.25"/>
+    <row r="11" spans="1:45" ht="11.25"/>
+    <row r="12" spans="1:45" ht="11.25"/>
+    <row r="13" spans="1:45" ht="11.25"/>
+    <row r="14" spans="1:45" ht="11.25"/>
+    <row r="15" spans="1:45" ht="11.25"/>
+    <row r="16" spans="1:45" ht="11.25"/>
+    <row r="17" s="6" customFormat="1" ht="11.25"/>
+    <row r="18" s="6" customFormat="1" ht="11.25"/>
     <row r="19" s="6" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="20" s="6" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="21" s="6" customFormat="1" ht="15.75" customHeight="1"/>
